--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2188659129217533</v>
+        <v>0.2236597029243569</v>
       </c>
       <c r="C2">
-        <v>0.7050143171874553</v>
+        <v>0.6761979329963813</v>
       </c>
       <c r="D2">
-        <v>0.6592004926906365</v>
+        <v>0.6208552414790156</v>
       </c>
       <c r="E2">
-        <v>0.8119116286213891</v>
+        <v>0.7879436791287913</v>
       </c>
       <c r="F2">
-        <v>0.8045227919605565</v>
+        <v>0.7762373633456771</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1273544283630637</v>
+        <v>0.1243738929906032</v>
       </c>
       <c r="C3">
-        <v>0.6050162813502676</v>
+        <v>0.5670298149555084</v>
       </c>
       <c r="D3">
-        <v>0.4865958870408279</v>
+        <v>0.4487500652448925</v>
       </c>
       <c r="E3">
-        <v>0.6975642529837863</v>
+        <v>0.6698880990470666</v>
       </c>
       <c r="F3">
-        <v>0.706947864170843</v>
+        <v>0.677324390080757</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1765711036489468</v>
+        <v>0.1692601144216072</v>
       </c>
       <c r="C4">
-        <v>0.5315892088827067</v>
+        <v>0.4938470918437637</v>
       </c>
       <c r="D4">
-        <v>0.3812414078094499</v>
+        <v>0.3483999257463576</v>
       </c>
       <c r="E4">
-        <v>0.6174474939696896</v>
+        <v>0.5902541196352276</v>
       </c>
       <c r="F4">
-        <v>0.6110660002896733</v>
+        <v>0.5828682296416691</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3089158941985792</v>
+        <v>0.2998499526236316</v>
       </c>
       <c r="C5">
-        <v>0.5336062545090875</v>
+        <v>0.5009693588263471</v>
       </c>
       <c r="D5">
-        <v>0.367184043986039</v>
+        <v>0.3362117046188728</v>
       </c>
       <c r="E5">
-        <v>0.6059571304853496</v>
+        <v>0.5798376536746065</v>
       </c>
       <c r="F5">
-        <v>0.539598078895167</v>
+        <v>0.5125639711936881</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3371523145334797</v>
+        <v>0.3249303377857756</v>
       </c>
       <c r="C6">
-        <v>0.5470956655119779</v>
+        <v>0.510714471671429</v>
       </c>
       <c r="D6">
-        <v>0.3804379552509287</v>
+        <v>0.3463237248587889</v>
       </c>
       <c r="E6">
-        <v>0.6167965266203504</v>
+        <v>0.5884927568447966</v>
       </c>
       <c r="F6">
-        <v>0.5359913754170539</v>
+        <v>0.5078779385610399</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3760859103274266</v>
+        <v>0.357871698984652</v>
       </c>
       <c r="C7">
-        <v>0.5514703789407236</v>
+        <v>0.5111964517621793</v>
       </c>
       <c r="D7">
-        <v>0.3881571544107501</v>
+        <v>0.3510459376640385</v>
       </c>
       <c r="E7">
-        <v>0.6230225954255192</v>
+        <v>0.592491297542874</v>
       </c>
       <c r="F7">
-        <v>0.5169876732920582</v>
+        <v>0.4900261363687482</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3802405588248936</v>
+        <v>0.3633620203708059</v>
       </c>
       <c r="C8">
-        <v>0.5691784227852649</v>
+        <v>0.5275006984044196</v>
       </c>
       <c r="D8">
-        <v>0.4121535142097497</v>
+        <v>0.3717216992278948</v>
       </c>
       <c r="E8">
-        <v>0.6419918334447485</v>
+        <v>0.6096898385473509</v>
       </c>
       <c r="F8">
-        <v>0.5402732961290299</v>
+        <v>0.5095722583647349</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4416991723442791</v>
+        <v>0.4177687993451564</v>
       </c>
       <c r="C9">
-        <v>0.5820691689054203</v>
+        <v>0.536905318813658</v>
       </c>
       <c r="D9">
-        <v>0.4337228858901434</v>
+        <v>0.3885450245204918</v>
       </c>
       <c r="E9">
-        <v>0.658576408543567</v>
+        <v>0.623333798634802</v>
       </c>
       <c r="F9">
-        <v>0.512335046375489</v>
+        <v>0.4831874337779735</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4630970739502006</v>
+        <v>0.435803605847665</v>
       </c>
       <c r="C10">
-        <v>0.6127466489576813</v>
+        <v>0.5614457896225986</v>
       </c>
       <c r="D10">
-        <v>0.4608064353689071</v>
+        <v>0.409650469768552</v>
       </c>
       <c r="E10">
-        <v>0.6788272500194045</v>
+        <v>0.6400394282921577</v>
       </c>
       <c r="F10">
-        <v>0.5231820752405095</v>
+        <v>0.4916281680178602</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.4396555919893709</v>
+        <v>0.4121559002167278</v>
       </c>
       <c r="C11">
-        <v>0.6096633709126222</v>
+        <v>0.5537197283926004</v>
       </c>
       <c r="D11">
-        <v>0.4663311010563976</v>
+        <v>0.4082939408543487</v>
       </c>
       <c r="E11">
-        <v>0.6828843980179936</v>
+        <v>0.638978826608792</v>
       </c>
       <c r="F11">
-        <v>0.5542231673026513</v>
+        <v>0.5146967335462779</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2236597029243569</v>
+        <v>0.186985831112528</v>
       </c>
       <c r="C2">
-        <v>0.6761979329963813</v>
+        <v>0.722203634391301</v>
       </c>
       <c r="D2">
-        <v>0.6208552414790156</v>
+        <v>0.9341118818059831</v>
       </c>
       <c r="E2">
-        <v>0.7879436791287913</v>
+        <v>0.9664946362013517</v>
       </c>
       <c r="F2">
-        <v>0.7762373633456771</v>
+        <v>0.9757249869846261</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1243738929906032</v>
+        <v>0.2330935088154202</v>
       </c>
       <c r="C3">
-        <v>0.5670298149555084</v>
+        <v>0.4998167590291169</v>
       </c>
       <c r="D3">
-        <v>0.4487500652448925</v>
+        <v>0.3374744503351871</v>
       </c>
       <c r="E3">
-        <v>0.6698880990470666</v>
+        <v>0.580925511864634</v>
       </c>
       <c r="F3">
-        <v>0.677324390080757</v>
+        <v>0.5484872224022262</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1692601144216072</v>
+        <v>0.2474022870896494</v>
       </c>
       <c r="C4">
-        <v>0.4938470918437637</v>
+        <v>0.4562231751086744</v>
       </c>
       <c r="D4">
-        <v>0.3483999257463576</v>
+        <v>0.282823943946844</v>
       </c>
       <c r="E4">
-        <v>0.5902541196352276</v>
+        <v>0.531811944155868</v>
       </c>
       <c r="F4">
-        <v>0.5828682296416691</v>
+        <v>0.4862000162233972</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2998499526236316</v>
+        <v>0.3331709995737225</v>
       </c>
       <c r="C5">
-        <v>0.5009693588263471</v>
+        <v>0.5061089045982429</v>
       </c>
       <c r="D5">
-        <v>0.3362117046188728</v>
+        <v>0.3514486812937936</v>
       </c>
       <c r="E5">
-        <v>0.5798376536746065</v>
+        <v>0.5928310731513604</v>
       </c>
       <c r="F5">
-        <v>0.5125639711936881</v>
+        <v>0.5075632610151456</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3249303377857756</v>
+        <v>0.3697548977873877</v>
       </c>
       <c r="C6">
-        <v>0.510714471671429</v>
+        <v>0.5076571467308241</v>
       </c>
       <c r="D6">
-        <v>0.3463237248587889</v>
+        <v>0.3515889833503586</v>
       </c>
       <c r="E6">
-        <v>0.5884927568447966</v>
+        <v>0.5929493935829251</v>
       </c>
       <c r="F6">
-        <v>0.5078779385610399</v>
+        <v>0.4810392743262605</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.357871698984652</v>
+        <v>0.3550099532386083</v>
       </c>
       <c r="C7">
-        <v>0.5111964517621793</v>
+        <v>0.5235044444458751</v>
       </c>
       <c r="D7">
-        <v>0.3510459376640385</v>
+        <v>0.3739286097767974</v>
       </c>
       <c r="E7">
-        <v>0.592491297542874</v>
+        <v>0.611497023522435</v>
       </c>
       <c r="F7">
-        <v>0.4900261363687482</v>
+        <v>0.518222527605833</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3633620203708059</v>
+        <v>0.4180599993501528</v>
       </c>
       <c r="C8">
-        <v>0.5275006984044196</v>
+        <v>0.5377036271313899</v>
       </c>
       <c r="D8">
-        <v>0.3717216992278948</v>
+        <v>0.3917271539151825</v>
       </c>
       <c r="E8">
-        <v>0.6096898385473509</v>
+        <v>0.6258811020594747</v>
       </c>
       <c r="F8">
-        <v>0.5095722583647349</v>
+        <v>0.4864935662755369</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4177687993451564</v>
+        <v>0.4373552979544756</v>
       </c>
       <c r="C9">
-        <v>0.536905318813658</v>
+        <v>0.5644811036562025</v>
       </c>
       <c r="D9">
-        <v>0.3885450245204918</v>
+        <v>0.414358809081934</v>
       </c>
       <c r="E9">
-        <v>0.623333798634802</v>
+        <v>0.643707083293274</v>
       </c>
       <c r="F9">
-        <v>0.4831874337779735</v>
+        <v>0.4953655899196011</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.435803605847665</v>
+        <v>0.4113383373941182</v>
       </c>
       <c r="C10">
-        <v>0.5614457896225986</v>
+        <v>0.553516800113468</v>
       </c>
       <c r="D10">
-        <v>0.409650469768552</v>
+        <v>0.4096270470205588</v>
       </c>
       <c r="E10">
-        <v>0.6400394282921577</v>
+        <v>0.640021130135997</v>
       </c>
       <c r="F10">
-        <v>0.4916281680178602</v>
+        <v>0.5168578347523529</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.4121559002167278</v>
+        <v>0.3463436447865475</v>
       </c>
       <c r="C11">
-        <v>0.5537197283926004</v>
+        <v>0.5120086005850197</v>
       </c>
       <c r="D11">
-        <v>0.4082939408543487</v>
+        <v>0.3587015581898463</v>
       </c>
       <c r="E11">
-        <v>0.638978826608792</v>
+        <v>0.5989169877285552</v>
       </c>
       <c r="F11">
-        <v>0.5146967335462779</v>
+        <v>0.5182577473073058</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AR2_50_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.186985831112528</v>
+        <v>0.2236597029243569</v>
       </c>
       <c r="C2">
-        <v>0.722203634391301</v>
+        <v>0.6761979329963813</v>
       </c>
       <c r="D2">
-        <v>0.9341118818059831</v>
+        <v>0.6208552414790156</v>
       </c>
       <c r="E2">
-        <v>0.9664946362013517</v>
+        <v>0.7879436791287913</v>
       </c>
       <c r="F2">
-        <v>0.9757249869846261</v>
+        <v>0.7762373633456771</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2330935088154202</v>
+        <v>0.1243738929906032</v>
       </c>
       <c r="C3">
-        <v>0.4998167590291169</v>
+        <v>0.5670298149555084</v>
       </c>
       <c r="D3">
-        <v>0.3374744503351871</v>
+        <v>0.4487500652448925</v>
       </c>
       <c r="E3">
-        <v>0.580925511864634</v>
+        <v>0.6698880990470666</v>
       </c>
       <c r="F3">
-        <v>0.5484872224022262</v>
+        <v>0.677324390080757</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2474022870896494</v>
+        <v>0.1692601144216072</v>
       </c>
       <c r="C4">
-        <v>0.4562231751086744</v>
+        <v>0.4938470918437637</v>
       </c>
       <c r="D4">
-        <v>0.282823943946844</v>
+        <v>0.3483999257463576</v>
       </c>
       <c r="E4">
-        <v>0.531811944155868</v>
+        <v>0.5902541196352276</v>
       </c>
       <c r="F4">
-        <v>0.4862000162233972</v>
+        <v>0.5828682296416691</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3331709995737225</v>
+        <v>0.2998499526236316</v>
       </c>
       <c r="C5">
-        <v>0.5061089045982429</v>
+        <v>0.5009693588263471</v>
       </c>
       <c r="D5">
-        <v>0.3514486812937936</v>
+        <v>0.3362117046188728</v>
       </c>
       <c r="E5">
-        <v>0.5928310731513604</v>
+        <v>0.5798376536746065</v>
       </c>
       <c r="F5">
-        <v>0.5075632610151456</v>
+        <v>0.5125639711936881</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3697548977873877</v>
+        <v>0.3249303377857756</v>
       </c>
       <c r="C6">
-        <v>0.5076571467308241</v>
+        <v>0.510714471671429</v>
       </c>
       <c r="D6">
-        <v>0.3515889833503586</v>
+        <v>0.3463237248587889</v>
       </c>
       <c r="E6">
-        <v>0.5929493935829251</v>
+        <v>0.5884927568447966</v>
       </c>
       <c r="F6">
-        <v>0.4810392743262605</v>
+        <v>0.5078779385610399</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3550099532386083</v>
+        <v>0.357871698984652</v>
       </c>
       <c r="C7">
-        <v>0.5235044444458751</v>
+        <v>0.5111964517621793</v>
       </c>
       <c r="D7">
-        <v>0.3739286097767974</v>
+        <v>0.3510459376640385</v>
       </c>
       <c r="E7">
-        <v>0.611497023522435</v>
+        <v>0.592491297542874</v>
       </c>
       <c r="F7">
-        <v>0.518222527605833</v>
+        <v>0.4900261363687482</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4180599993501528</v>
+        <v>0.3633620203708059</v>
       </c>
       <c r="C8">
-        <v>0.5377036271313899</v>
+        <v>0.5275006984044196</v>
       </c>
       <c r="D8">
-        <v>0.3917271539151825</v>
+        <v>0.3717216992278948</v>
       </c>
       <c r="E8">
-        <v>0.6258811020594747</v>
+        <v>0.6096898385473509</v>
       </c>
       <c r="F8">
-        <v>0.4864935662755369</v>
+        <v>0.5095722583647349</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4373552979544756</v>
+        <v>0.4177687993451564</v>
       </c>
       <c r="C9">
-        <v>0.5644811036562025</v>
+        <v>0.536905318813658</v>
       </c>
       <c r="D9">
-        <v>0.414358809081934</v>
+        <v>0.3885450245204918</v>
       </c>
       <c r="E9">
-        <v>0.643707083293274</v>
+        <v>0.623333798634802</v>
       </c>
       <c r="F9">
-        <v>0.4953655899196011</v>
+        <v>0.4831874337779735</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4113383373941182</v>
+        <v>0.435803605847665</v>
       </c>
       <c r="C10">
-        <v>0.553516800113468</v>
+        <v>0.5614457896225986</v>
       </c>
       <c r="D10">
-        <v>0.4096270470205588</v>
+        <v>0.409650469768552</v>
       </c>
       <c r="E10">
-        <v>0.640021130135997</v>
+        <v>0.6400394282921577</v>
       </c>
       <c r="F10">
-        <v>0.5168578347523529</v>
+        <v>0.4916281680178602</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3463436447865475</v>
+        <v>0.4121559002167278</v>
       </c>
       <c r="C11">
-        <v>0.5120086005850197</v>
+        <v>0.5537197283926004</v>
       </c>
       <c r="D11">
-        <v>0.3587015581898463</v>
+        <v>0.4082939408543487</v>
       </c>
       <c r="E11">
-        <v>0.5989169877285552</v>
+        <v>0.638978826608792</v>
       </c>
       <c r="F11">
-        <v>0.5182577473073058</v>
+        <v>0.5146967335462779</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
